--- a/Files/UploadedFiles/test.xlsx
+++ b/Files/UploadedFiles/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE71AE6-1508-4A00-87E5-4FCBF78F9677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B7BF38-BE28-4DCA-80BF-B5DA12DADD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4395" windowWidth="29040" windowHeight="15840" xr2:uid="{878E831E-1DBB-4207-86A9-89410580734E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>First Name</t>
   </si>
@@ -69,7 +69,19 @@
     <t>Alabi</t>
   </si>
   <si>
+    <t>Adenola</t>
+  </si>
+  <si>
+    <t>Elegbede</t>
+  </si>
+  <si>
+    <t>Idara</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>Last Name is required.</t>
   </si>
 </sst>
 </file>
@@ -439,16 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0917870-4690-4F49-BB29-94A3C7BF3930}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.3125" customWidth="1"/>
-    <col min="2" max="2" width="12.26171875" customWidth="1"/>
+    <col min="1" max="1" width="13.3125" customWidth="1" style="2"/>
+    <col min="2" max="2" width="12.26171875" customWidth="1" style="2"/>
     <col min="3" max="3" width="12.68359375" customWidth="1"/>
     <col min="7" max="7" width="18.68359375" customWidth="1"/>
   </cols>
@@ -477,7 +489,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
@@ -502,30 +513,71 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>30770</v>
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="H4" s="0" t="s">
-        <v>8</v>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>30780</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
